--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DBECFB-8D7B-4142-BB33-98F800DA2347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549515B8-ABA0-48B4-9FC6-3041D7758D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iden_model_128_10_3.749_0.125</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>iden_model_128_10_3.750_0.125.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_20_2.891_0.267.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_20_2.928_0.268_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_10_3.818_0.120_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_25_2.576_0.339.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_30_2.272_0.405.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_25_2.573_0.350_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_30_2.220_0.433_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_35_1.867_0.524_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512dim_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_40_1.618_0.572.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_50_0.999_0.750.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_35_1.944_0.481.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_40_1.527_0.613_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_45_1.161_0.717_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_50_0.822_0.821_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_55_0.533_0.907_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_45_1.302_0.662.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_55_0.713_0.840.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024dim_model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,10 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,81 +452,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1"/>
-    <col min="2" max="9" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" customWidth="1"/>
+    <col min="5" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="1">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>5.1200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.2104</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.2472</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.26939999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.2873</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.2828</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.32069999999999999</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2928</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549515B8-ABA0-48B4-9FC6-3041D7758D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA4B0E-1002-415D-822D-3AA2056DB1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>iden_model_128_10_3.750_0.125.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>512dim_model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>512_acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,7 +107,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1024dim_model</t>
+    <t>iden_model_128_05_0.490_0.908_add55.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_10_0.311_0.956_add55.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_05_0.307_0.968_512dim_add55.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_10_0.148_0.994_512dim_add55.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_15_0.158_0.989_add55.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_15_0.069_1.000_512dim_add55.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话人识别（128类）</t>
+  </si>
+  <si>
+    <t>model（1024维特征）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model（512维特征）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_75_test.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_75_test_512dim.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +171,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -164,14 +216,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -187,6 +247,1236 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>说话人识别的不同长度特征的对比</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024_acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iden_model_128_25_2.576_0.339.h5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iden_model_128_30_2.272_0.405.h5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iden_model_128_35_1.944_0.481.h5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>iden_model_128_40_1.618_0.572.h5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iden_model_128_45_1.302_0.662.h5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>iden_model_128_50_0.999_0.750.h5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>iden_model_128_55_0.713_0.840.h5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>iden_model_128_05_0.490_0.908_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>iden_model_128_10_0.311_0.956_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>iden_model_128_75_test.h5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.14249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30280000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DEA-4E1B-AD82-F5D364BF8601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512_acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iden_model_128_25_2.576_0.339.h5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iden_model_128_30_2.272_0.405.h5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iden_model_128_35_1.944_0.481.h5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>iden_model_128_40_1.618_0.572.h5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iden_model_128_45_1.302_0.662.h5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>iden_model_128_50_0.999_0.750.h5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>iden_model_128_55_0.713_0.840.h5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>iden_model_128_05_0.490_0.908_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>iden_model_128_10_0.311_0.956_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>iden_model_128_75_test.h5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.13689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39860000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DEA-4E1B-AD82-F5D364BF8601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>model（512维特征）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iden_model_128_25_2.576_0.339.h5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iden_model_128_30_2.272_0.405.h5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iden_model_128_35_1.944_0.481.h5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>iden_model_128_40_1.618_0.572.h5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iden_model_128_45_1.302_0.662.h5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>iden_model_128_50_0.999_0.750.h5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>iden_model_128_55_0.713_0.840.h5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>iden_model_128_05_0.490_0.908_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>iden_model_128_10_0.311_0.956_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>iden_model_128_75_test.h5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2DEA-4E1B-AD82-F5D364BF8601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1800205200"/>
+        <c:axId val="1690980656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1800205200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1690980656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1690980656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800205200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3741420</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4160520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322FC3DA-56CD-4EF0-AA66-F59DF3C23D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,205 +1742,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="1" max="1" width="54.77734375" customWidth="1"/>
     <col min="2" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
     <col min="5" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2104</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.2472</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.26939999999999997</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.2873</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.2828</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.32069999999999999</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.2928</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.32069999999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.3574</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
+      <c r="B13" s="3">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.14249999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.13689999999999999</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.17030000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.2104</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.21929999999999999</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.2472</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.27389999999999998</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.26939999999999997</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.2873</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.2828</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.32069999999999999</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.2928</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.34289999999999998</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.30280000000000001</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA4B0E-1002-415D-822D-3AA2056DB1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A23C5-521C-4E3F-8ECD-0B0FE814C3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iden_model_128_75_test_512dim.h5</t>
+    <t>iden_model_128_20_0.036_1.000_512dim_add55.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +195,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,14 +225,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -232,6 +235,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -284,7 +296,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>说话人识别的不同长度特征的对比</a:t>
+              <a:t>说话人识别的不同长度特征的效果对比</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -554,6 +566,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.39860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38750000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,13 +1458,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3741420</xdr:colOff>
+      <xdr:colOff>3733800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4160520</xdr:colOff>
+      <xdr:colOff>4152900</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -1742,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1757,236 +1772,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>0.14249999999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>0.13689999999999999</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>0.17030000000000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>0.2104</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>0.21929999999999999</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>0.2472</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>0.27389999999999998</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>0.26939999999999997</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>0.2873</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>0.2828</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>0.32069999999999999</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>0.2928</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>0.34289999999999998</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>0.30280000000000001</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>0.32069999999999999</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>0.3574</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>0.30280000000000001</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>0.38190000000000002</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>0.32729999999999998</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>0.39860000000000001</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>0.30280000000000001</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="1">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A23C5-521C-4E3F-8ECD-0B0FE814C3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F58C5-8DA2-48F5-B893-0415DCFA3AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vgg" sheetId="1" r:id="rId1"/>
+    <sheet name="resNet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>iden_model_128_10_3.750_0.125.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,11 +143,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iden_model_128_75_test.h5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iden_model_128_20_0.036_1.000_512dim_add55.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_05_0.079_0.998_add75.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_20_0.017_1.000_add75.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_05_0.019_1.000_512dim_add75.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_10_0.010_1.000_512dim_add75.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_05_2.470_0.434_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_10_0.041_1.000_add75.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +233,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,13 +288,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -341,7 +400,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>vgg!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -364,9 +423,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$16</c:f>
+              <c:f>vgg!$A$4:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
                 </c:pt>
@@ -401,14 +460,17 @@
                   <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>iden_model_128_75_test.h5</c:v>
+                  <c:v>iden_model_128_05_0.079_0.998_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>iden_model_128_10_0.041_1.000_add75.h5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$16</c:f>
+              <c:f>vgg!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -446,7 +508,10 @@
                   <c:v>0.32729999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30280000000000001</c:v>
+                  <c:v>0.31730000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32069999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,7 +528,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>vgg!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -486,9 +551,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$16</c:f>
+              <c:f>vgg!$A$4:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
                 </c:pt>
@@ -523,14 +588,17 @@
                   <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>iden_model_128_75_test.h5</c:v>
+                  <c:v>iden_model_128_05_0.079_0.998_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>iden_model_128_10_0.041_1.000_add75.h5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$16</c:f>
+              <c:f>vgg!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -569,6 +637,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.38750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40079999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +656,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>vgg!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -608,9 +679,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$16</c:f>
+              <c:f>vgg!$A$4:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
                 </c:pt>
@@ -645,14 +716,17 @@
                   <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>iden_model_128_75_test.h5</c:v>
+                  <c:v>iden_model_128_05_0.079_0.998_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>iden_model_128_10_0.041_1.000_add75.h5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$16</c:f>
+              <c:f>vgg!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -690,6 +764,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1458,13 +1535,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3733800</xdr:colOff>
+      <xdr:colOff>3741420</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:colOff>4160520</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -1760,7 +1837,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1772,12 +1849,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1963,29 +2040,45 @@
     </row>
     <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
-        <v>0.30280000000000001</v>
+        <v>0.31730000000000003</v>
       </c>
       <c r="C15" s="1">
         <v>0.38750000000000001</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.32069999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.40079999999999999</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -2006,10 +2099,10 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="7"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2020,4 +2113,145 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E5A1D1-1B52-4827-AD54-363E31F8B9ED}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F58C5-8DA2-48F5-B893-0415DCFA3AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A156D06-55EA-4F67-8827-38B45210836D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="vgg" sheetId="1" r:id="rId1"/>
-    <sheet name="resNet" sheetId="2" r:id="rId2"/>
+    <sheet name="vgg（128）" sheetId="1" r:id="rId1"/>
+    <sheet name="resNet（128）" sheetId="2" r:id="rId2"/>
+    <sheet name="vgg（1251）" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>iden_model_128_10_3.750_0.125.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iden_model_128_05_2.470_0.434_resNet.h5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,13 +174,48 @@
   <si>
     <t>iden_model_128_10_0.041_1.000_add75.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_05_0.011_1.000_add95.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_15_0.009_1.000_add95.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_20_0.006_1.000_add95.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_05_0.145_0.972_512dim_add85.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_10_0.010_1.000_512dim_add85.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_15_0.007_1.000_512dim_add85.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_20_0.005_1.000_512dim_add85.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_25_0.003_1.000_512dim_add85.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话人识别（1251类）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,15 +258,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -258,12 +281,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,6 +317,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,12 +329,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -354,9 +384,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>说话人识别的不同长度特征的效果对比</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -400,7 +435,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>vgg!$B$2</c:f>
+              <c:f>'vgg（128）'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -423,95 +458,125 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>vgg!$A$4:$A$16</c:f>
+              <c:f>'vgg（128）'!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>iden_model_128_10_3.750_0.125.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>iden_model_128_25_2.576_0.339.h5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>iden_model_128_30_2.272_0.405.h5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>iden_model_128_35_1.944_0.481.h5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>iden_model_128_40_1.618_0.572.h5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>iden_model_128_45_1.302_0.662.h5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>iden_model_128_50_0.999_0.750.h5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>iden_model_128_55_0.713_0.840.h5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>iden_model_128_05_0.490_0.908_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>iden_model_128_10_0.311_0.956_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>iden_model_128_05_0.079_0.998_add75.h5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>iden_model_128_10_0.041_1.000_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>iden_model_128_20_0.017_1.000_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>iden_model_128_05_0.011_1.000_add95.h5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>iden_model_128_15_0.009_1.000_add95.h5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>iden_model_128_20_0.006_1.000_add95.h5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>vgg!$B$4:$B$16</c:f>
+              <c:f>'vgg（128）'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>4.3400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.14249999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17030000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.2104</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.2472</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.26939999999999997</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.2828</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.2928</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.30280000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.32069999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.30280000000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.32729999999999998</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.31730000000000003</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.32069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32619999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,7 +584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2DEA-4E1B-AD82-F5D364BF8601}"/>
+              <c16:uniqueId val="{00000000-1EF4-429B-8F9E-63FABA146901}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -528,7 +593,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>vgg!$C$2</c:f>
+              <c:f>'vgg（128）'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -551,95 +616,131 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>vgg!$A$4:$A$16</c:f>
+              <c:f>'vgg（128）'!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>iden_model_128_10_3.750_0.125.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>iden_model_128_25_2.576_0.339.h5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>iden_model_128_30_2.272_0.405.h5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>iden_model_128_35_1.944_0.481.h5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>iden_model_128_40_1.618_0.572.h5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>iden_model_128_45_1.302_0.662.h5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>iden_model_128_50_0.999_0.750.h5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>iden_model_128_55_0.713_0.840.h5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>iden_model_128_05_0.490_0.908_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>iden_model_128_10_0.311_0.956_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>iden_model_128_05_0.079_0.998_add75.h5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>iden_model_128_10_0.041_1.000_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>iden_model_128_20_0.017_1.000_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>iden_model_128_05_0.011_1.000_add95.h5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>iden_model_128_15_0.009_1.000_add95.h5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>iden_model_128_20_0.006_1.000_add95.h5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>vgg!$C$4:$C$16</c:f>
+              <c:f>'vgg（128）'!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>5.1200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.13689999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.17699999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.21929999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.27389999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.2873</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.32069999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.34289999999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.33400000000000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.3574</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.38190000000000002</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.39860000000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.38750000000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.40079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,7 +748,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2DEA-4E1B-AD82-F5D364BF8601}"/>
+              <c16:uniqueId val="{00000001-1EF4-429B-8F9E-63FABA146901}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -656,7 +757,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>vgg!$D$2</c:f>
+              <c:f>'vgg（128）'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -679,57 +780,72 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>vgg!$A$4:$A$16</c:f>
+              <c:f>'vgg（128）'!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>iden_model_128_10_3.750_0.125.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>iden_model_128_20_2.891_0.267.h5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>iden_model_128_25_2.576_0.339.h5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>iden_model_128_30_2.272_0.405.h5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>iden_model_128_35_1.944_0.481.h5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>iden_model_128_40_1.618_0.572.h5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>iden_model_128_45_1.302_0.662.h5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>iden_model_128_50_0.999_0.750.h5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>iden_model_128_55_0.713_0.840.h5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>iden_model_128_05_0.490_0.908_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>iden_model_128_10_0.311_0.956_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>iden_model_128_15_0.158_0.989_add55.h5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>iden_model_128_05_0.079_0.998_add75.h5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>iden_model_128_10_0.041_1.000_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>iden_model_128_20_0.017_1.000_add75.h5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>iden_model_128_05_0.011_1.000_add95.h5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>iden_model_128_15_0.009_1.000_add95.h5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>iden_model_128_20_0.006_1.000_add95.h5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>vgg!$D$4:$D$16</c:f>
+              <c:f>'vgg（128）'!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -767,6 +883,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -775,7 +912,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2DEA-4E1B-AD82-F5D364BF8601}"/>
+              <c16:uniqueId val="{00000002-1EF4-429B-8F9E-63FABA146901}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -788,11 +925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1800205200"/>
-        <c:axId val="1690980656"/>
+        <c:axId val="723945488"/>
+        <c:axId val="558836400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1800205200"/>
+        <c:axId val="723945488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +972,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1690980656"/>
+        <c:crossAx val="558836400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -843,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1690980656"/>
+        <c:axId val="558836400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +1031,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800205200"/>
+        <c:crossAx val="723945488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,23 +1671,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3741420</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4160520</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322FC3DA-56CD-4EF0-AA66-F59DF3C23D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C49145-EC9F-4F24-A6E7-0DC999ADD17A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1849,12 +1986,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2054,7 +2191,7 @@
     </row>
     <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>0.32069999999999999</v>
@@ -2081,28 +2218,149 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
+      <c r="A20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.40860000000000002</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="11">
+        <v>0.4153</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2119,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E5A1D1-1B52-4827-AD54-363E31F8B9ED}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2131,122 +2389,118 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11">
-        <v>3.3E-3</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2254,4 +2508,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1BBD3E-3386-438D-832A-1A2CB422B7C8}">
+  <dimension ref="A1:B199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B153" s="4"/>
+    </row>
+    <row r="154" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B161" s="4"/>
+    </row>
+    <row r="162" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B163" s="4"/>
+    </row>
+    <row r="164" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B164" s="4"/>
+    </row>
+    <row r="165" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B165" s="4"/>
+    </row>
+    <row r="166" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B166" s="4"/>
+    </row>
+    <row r="167" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B167" s="4"/>
+    </row>
+    <row r="168" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B168" s="4"/>
+    </row>
+    <row r="169" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B169" s="4"/>
+    </row>
+    <row r="170" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B170" s="4"/>
+    </row>
+    <row r="171" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B171" s="4"/>
+    </row>
+    <row r="172" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B172" s="4"/>
+    </row>
+    <row r="173" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B173" s="4"/>
+    </row>
+    <row r="174" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B175" s="4"/>
+    </row>
+    <row r="176" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B176" s="4"/>
+    </row>
+    <row r="177" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B177" s="4"/>
+    </row>
+    <row r="178" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B178" s="4"/>
+    </row>
+    <row r="179" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B179" s="4"/>
+    </row>
+    <row r="180" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B180" s="4"/>
+    </row>
+    <row r="181" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B182" s="4"/>
+    </row>
+    <row r="183" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B183" s="4"/>
+    </row>
+    <row r="184" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B186" s="4"/>
+    </row>
+    <row r="187" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B188" s="4"/>
+    </row>
+    <row r="189" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B190" s="4"/>
+    </row>
+    <row r="191" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B191" s="4"/>
+    </row>
+    <row r="192" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B192" s="4"/>
+    </row>
+    <row r="193" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B195" s="4"/>
+    </row>
+    <row r="196" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B196" s="4"/>
+    </row>
+    <row r="197" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B199" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A156D06-55EA-4F67-8827-38B45210836D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB2D29-F198-44AB-B136-DBEAC925C466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vgg（128）" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>iden_model_128_10_3.750_0.125.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,14 @@
   </si>
   <si>
     <t>说话人识别（1251类）</t>
+  </si>
+  <si>
+    <t>iden_model_1251_10_4.209_0.175_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_1251_15_3.296_0.316_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -323,16 +331,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1986,12 +1994,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2235,7 +2243,7 @@
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>0.32850000000000001</v>
       </c>
       <c r="C19" s="1">
@@ -2262,7 +2270,7 @@
     <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>0.4153</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2377,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E5A1D1-1B52-4827-AD54-363E31F8B9ED}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2514,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1BBD3E-3386-438D-832A-1A2CB422B7C8}">
   <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2525,10 +2533,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2539,608 +2547,616 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.7199999999999995E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.1946</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B35" s="4"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B41" s="4"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B42" s="4"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B43" s="4"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B57" s="4"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B63" s="4"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B68" s="4"/>
+      <c r="B68" s="1"/>
     </row>
     <row r="69" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B69" s="4"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B70" s="4"/>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B72" s="4"/>
+      <c r="B72" s="1"/>
     </row>
     <row r="73" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B73" s="4"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B74" s="4"/>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B75" s="4"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B76" s="4"/>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B78" s="4"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B79" s="4"/>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B80" s="4"/>
+      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B81" s="4"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B82" s="4"/>
+      <c r="B82" s="1"/>
     </row>
     <row r="83" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B83" s="4"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B84" s="4"/>
+      <c r="B84" s="1"/>
     </row>
     <row r="85" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B85" s="4"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B86" s="4"/>
+      <c r="B86" s="1"/>
     </row>
     <row r="87" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B87" s="4"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B88" s="4"/>
+      <c r="B88" s="1"/>
     </row>
     <row r="89" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B89" s="4"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B90" s="4"/>
+      <c r="B90" s="1"/>
     </row>
     <row r="91" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B91" s="4"/>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B92" s="4"/>
+      <c r="B92" s="1"/>
     </row>
     <row r="93" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B93" s="4"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B94" s="4"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B95" s="4"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B96" s="4"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B97" s="4"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B98" s="4"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B99" s="4"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B100" s="4"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B101" s="4"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B102" s="4"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B103" s="4"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B104" s="4"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B105" s="4"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B106" s="4"/>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B107" s="4"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B108" s="4"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B109" s="4"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B110" s="4"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B111" s="4"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B112" s="4"/>
+      <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B113" s="4"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B114" s="4"/>
+      <c r="B114" s="1"/>
     </row>
     <row r="115" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B115" s="4"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B116" s="4"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B117" s="4"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B118" s="4"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B119" s="4"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B120" s="4"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B121" s="4"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B122" s="4"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B123" s="4"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B124" s="4"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B125" s="4"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B126" s="4"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B127" s="4"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B128" s="4"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B129" s="4"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B130" s="4"/>
+      <c r="B130" s="1"/>
     </row>
     <row r="131" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B131" s="4"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B132" s="4"/>
+      <c r="B132" s="1"/>
     </row>
     <row r="133" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B133" s="4"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B134" s="4"/>
+      <c r="B134" s="1"/>
     </row>
     <row r="135" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B135" s="4"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B136" s="4"/>
+      <c r="B136" s="1"/>
     </row>
     <row r="137" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B137" s="4"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B138" s="4"/>
+      <c r="B138" s="1"/>
     </row>
     <row r="139" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B139" s="4"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B140" s="4"/>
+      <c r="B140" s="1"/>
     </row>
     <row r="141" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B141" s="4"/>
+      <c r="B141" s="1"/>
     </row>
     <row r="142" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B142" s="4"/>
+      <c r="B142" s="1"/>
     </row>
     <row r="143" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B143" s="4"/>
+      <c r="B143" s="1"/>
     </row>
     <row r="144" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B144" s="4"/>
+      <c r="B144" s="1"/>
     </row>
     <row r="145" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B145" s="4"/>
+      <c r="B145" s="1"/>
     </row>
     <row r="146" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B146" s="4"/>
+      <c r="B146" s="1"/>
     </row>
     <row r="147" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B147" s="4"/>
+      <c r="B147" s="1"/>
     </row>
     <row r="148" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B148" s="4"/>
+      <c r="B148" s="1"/>
     </row>
     <row r="149" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B149" s="4"/>
+      <c r="B149" s="1"/>
     </row>
     <row r="150" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B150" s="4"/>
+      <c r="B150" s="1"/>
     </row>
     <row r="151" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B151" s="4"/>
+      <c r="B151" s="1"/>
     </row>
     <row r="152" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B152" s="4"/>
+      <c r="B152" s="1"/>
     </row>
     <row r="153" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B153" s="4"/>
+      <c r="B153" s="1"/>
     </row>
     <row r="154" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B154" s="4"/>
+      <c r="B154" s="1"/>
     </row>
     <row r="155" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B155" s="4"/>
+      <c r="B155" s="1"/>
     </row>
     <row r="156" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B156" s="4"/>
+      <c r="B156" s="1"/>
     </row>
     <row r="157" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B157" s="4"/>
+      <c r="B157" s="1"/>
     </row>
     <row r="158" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B158" s="4"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B159" s="4"/>
+      <c r="B159" s="1"/>
     </row>
     <row r="160" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B160" s="4"/>
+      <c r="B160" s="1"/>
     </row>
     <row r="161" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B161" s="4"/>
+      <c r="B161" s="1"/>
     </row>
     <row r="162" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B162" s="4"/>
+      <c r="B162" s="1"/>
     </row>
     <row r="163" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B163" s="4"/>
+      <c r="B163" s="1"/>
     </row>
     <row r="164" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B164" s="4"/>
+      <c r="B164" s="1"/>
     </row>
     <row r="165" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B165" s="4"/>
+      <c r="B165" s="1"/>
     </row>
     <row r="166" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B166" s="4"/>
+      <c r="B166" s="1"/>
     </row>
     <row r="167" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B167" s="4"/>
+      <c r="B167" s="1"/>
     </row>
     <row r="168" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B168" s="4"/>
+      <c r="B168" s="1"/>
     </row>
     <row r="169" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B169" s="4"/>
+      <c r="B169" s="1"/>
     </row>
     <row r="170" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B170" s="4"/>
+      <c r="B170" s="1"/>
     </row>
     <row r="171" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B171" s="4"/>
+      <c r="B171" s="1"/>
     </row>
     <row r="172" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B172" s="4"/>
+      <c r="B172" s="1"/>
     </row>
     <row r="173" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B173" s="4"/>
+      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B174" s="4"/>
+      <c r="B174" s="1"/>
     </row>
     <row r="175" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B175" s="4"/>
+      <c r="B175" s="1"/>
     </row>
     <row r="176" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B176" s="4"/>
+      <c r="B176" s="1"/>
     </row>
     <row r="177" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B177" s="4"/>
+      <c r="B177" s="1"/>
     </row>
     <row r="178" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B178" s="4"/>
+      <c r="B178" s="1"/>
     </row>
     <row r="179" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B179" s="4"/>
+      <c r="B179" s="1"/>
     </row>
     <row r="180" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B180" s="4"/>
+      <c r="B180" s="1"/>
     </row>
     <row r="181" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B181" s="4"/>
+      <c r="B181" s="1"/>
     </row>
     <row r="182" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B182" s="4"/>
+      <c r="B182" s="1"/>
     </row>
     <row r="183" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B183" s="4"/>
+      <c r="B183" s="1"/>
     </row>
     <row r="184" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B184" s="4"/>
+      <c r="B184" s="1"/>
     </row>
     <row r="185" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B185" s="4"/>
+      <c r="B185" s="1"/>
     </row>
     <row r="186" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B186" s="4"/>
+      <c r="B186" s="1"/>
     </row>
     <row r="187" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B187" s="4"/>
+      <c r="B187" s="1"/>
     </row>
     <row r="188" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B188" s="4"/>
+      <c r="B188" s="1"/>
     </row>
     <row r="189" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B189" s="4"/>
+      <c r="B189" s="1"/>
     </row>
     <row r="190" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B190" s="4"/>
+      <c r="B190" s="1"/>
     </row>
     <row r="191" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B191" s="4"/>
+      <c r="B191" s="1"/>
     </row>
     <row r="192" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B192" s="4"/>
+      <c r="B192" s="1"/>
     </row>
     <row r="193" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B193" s="4"/>
+      <c r="B193" s="1"/>
     </row>
     <row r="194" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B194" s="4"/>

--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB2D29-F198-44AB-B136-DBEAC925C466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D33BBF-B5AF-402B-9E2D-92DB91F9AA6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vgg（128）" sheetId="1" r:id="rId1"/>
-    <sheet name="resNet（128）" sheetId="2" r:id="rId2"/>
-    <sheet name="vgg（1251）" sheetId="3" r:id="rId3"/>
+    <sheet name="vgg（1251）" sheetId="3" r:id="rId2"/>
+    <sheet name="resNet（128）" sheetId="2" r:id="rId3"/>
+    <sheet name="resNet_add（128）" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>iden_model_128_10_3.750_0.125.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,22 +209,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>iden_model_1251_10_4.209_0.175_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_1251_15_3.296_0.316_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_15_1.369_0.704_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_10_2.173_0.512_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>说话人识别（1251类）</t>
-  </si>
-  <si>
-    <t>iden_model_1251_10_4.209_0.175_512dim.h5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iden_model_1251_15_3.296_0.316_512dim.h5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话人识别（128类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_10_2.250_0.503_resNet.h5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,30 +283,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="14"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,12 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,6 +340,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1679,16 +1686,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3558540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1981,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1994,24 +2001,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2243,7 +2250,7 @@
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="5">
         <v>0.32850000000000001</v>
       </c>
       <c r="C19" s="1">
@@ -2270,7 +2277,7 @@
     <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>0.4153</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2382,147 +2389,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E5A1D1-1B52-4827-AD54-363E31F8B9ED}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1BBD3E-3386-438D-832A-1A2CB422B7C8}">
   <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2533,109 +2403,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>47</v>
+      <c r="A4" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>0.1946</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3183,4 +3053,377 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E5A1D1-1B52-4827-AD54-363E31F8B9ED}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.27950000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC1DECC-A265-40B8-B814-790E611A9423}">
+  <dimension ref="A1:B164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.25609999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D33BBF-B5AF-402B-9E2D-92DB91F9AA6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66EA34E-B47D-416E-8A96-A1A83597E161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vgg（128）" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>iden_model_128_10_3.750_0.125.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,34 @@
   </si>
   <si>
     <t>iden_model_128_10_2.250_0.503_resNet.h5</t>
+  </si>
+  <si>
+    <t>iden_model_128_20_0.786_0.859_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_25_0.541_0.936_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_15_1.358_0.715_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_1251_20_2.547_0.453_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_30_0.488_0.952_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_20_0.750_0.878_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_35_0.471_0.958_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -336,16 +364,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1687,15 +1715,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3558540</xdr:colOff>
+      <xdr:colOff>3322320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>281940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>243840</xdr:rowOff>
+      <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1988,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2001,24 +2029,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2393,7 +2421,7 @@
   <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2403,16 +2431,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2433,8 +2461,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.26440000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -3059,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E5A1D1-1B52-4827-AD54-363E31F8B9ED}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3070,16 +3102,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3100,19 +3132,33 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.32179999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.31840000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.29060000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3226,7 +3272,7 @@
   <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3236,16 +3282,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3257,163 +3303,640 @@
         <v>0.25609999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.28060000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.2873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6"/>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6"/>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="6"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="6"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="6"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="6"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="6"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="6"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="6"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="6"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="6"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="6"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="6"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="6"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="6"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6"/>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="6"/>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="6"/>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+    </row>
     <row r="161" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/res/iden.xlsx
+++ b/res/iden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOE\Desktop\声纹识别\笔记\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66EA34E-B47D-416E-8A96-A1A83597E161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481E6A1A-5CAB-4E0D-9705-9100AEE3FC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="23295" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vgg（128）" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>iden_model_128_10_3.750_0.125.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,22 @@
     <t>iden_model_128_35_0.471_0.958_resNet.h5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>iden_model_128_25_0.586_0.931_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_30_0.493_0.960_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_128_40_0.425_0.973_resNet.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iden_model_1251_25_1.891_0.588_512dim.h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1154,7 +1170,1036 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vgg（1251）'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vgg（1251）'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>iden_model_1251_10_4.209_0.175_512dim.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iden_model_1251_15_3.296_0.316_512dim.h5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iden_model_1251_20_2.547_0.453_512dim.h5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iden_model_1251_25_1.891_0.588_512dim.h5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vgg（1251）'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.7199999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33310000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-831A-4273-8A68-455C40435F78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="370724527"/>
+        <c:axId val="225755903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370724527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225755903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="225755903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370724527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resNet（128）'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'resNet（128）'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>iden_model_128_10_2.173_0.512_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iden_model_128_15_1.369_0.704_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iden_model_128_20_0.786_0.859_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iden_model_128_25_0.541_0.936_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>iden_model_128_30_0.488_0.952_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iden_model_128_35_0.471_0.958_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>iden_model_128_40_0.425_0.973_resNet.h5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'resNet（128）'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.27950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31730000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4FD-466A-BD0C-32F1F8E963AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="370109423"/>
+        <c:axId val="172035983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370109423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="172035983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172035983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370109423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'resNet_add（128）'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'resNet_add（128）'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>iden_model_128_10_2.250_0.503_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iden_model_128_15_1.358_0.715_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>iden_model_128_20_0.750_0.878_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iden_model_128_25_0.586_0.931_resNet.h5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>iden_model_128_30_0.493_0.960_resNet.h5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'resNet_add（128）'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30059999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-591C-4B82-87D6-239CDCC78FA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="370640527"/>
+        <c:axId val="333918175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="370640527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333918175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="333918175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370640527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1710,20 +2755,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3322320</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
+      <xdr:colOff>1297305</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:colOff>584835</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1731,6 +4324,129 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C49145-EC9F-4F24-A6E7-0DC999ADD17A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51F0FD2-604F-4B29-8D38-6989F57BDEA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE83368-DEB7-4E2C-B4BD-8FBCB541A546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>377190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBCBF26-5B86-4BB8-9B46-1DB96E57E322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,19 +4732,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.77734375" customWidth="1"/>
-    <col min="2" max="3" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.75" customWidth="1"/>
+    <col min="2" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="64" customWidth="1"/>
-    <col min="5" max="9" width="12.77734375" customWidth="1"/>
+    <col min="5" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
@@ -2036,7 +4752,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -2050,7 +4766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2064,7 +4780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +4794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +4808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2106,7 +4822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2120,7 +4836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2134,7 +4850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2148,7 +4864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +4878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +4892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2190,7 +4906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -2204,7 +4920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2218,7 +4934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2232,7 +4948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2246,7 +4962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2260,7 +4976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -2274,7 +4990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -2288,7 +5004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -2302,7 +5018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="5">
@@ -2312,7 +5028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
@@ -2322,87 +5038,87 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="1"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
   </sheetData>
@@ -2421,22 +5137,22 @@
   <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -2444,7 +5160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>45</v>
       </c>
@@ -2452,7 +5168,7 @@
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
@@ -2460,7 +5176,7 @@
         <v>0.1946</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>55</v>
       </c>
@@ -2468,614 +5184,618 @@
         <v>0.26440000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.33310000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
     </row>
-    <row r="195" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
     </row>
-    <row r="196" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
     </row>
-    <row r="197" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
     </row>
-    <row r="198" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
     </row>
-    <row r="199" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
     </row>
   </sheetData>
@@ -3084,6 +5804,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3091,23 +5812,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E5A1D1-1B52-4827-AD54-363E31F8B9ED}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="59.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -3115,7 +5836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
@@ -3123,7 +5844,7 @@
         <v>0.27950000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
@@ -3131,7 +5852,7 @@
         <v>0.2984</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>52</v>
       </c>
@@ -3139,7 +5860,7 @@
         <v>0.32179999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -3147,7 +5868,7 @@
         <v>0.31840000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
@@ -3155,105 +5876,111 @@
         <v>0.29060000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>0.31730000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
@@ -3264,6 +5991,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3272,22 +6000,22 @@
   <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="57.375" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -3295,7 +6023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>51</v>
       </c>
@@ -3303,7 +6031,7 @@
         <v>0.25609999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>54</v>
       </c>
@@ -3311,7 +6039,7 @@
         <v>0.28060000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -3319,628 +6047,636 @@
         <v>0.2873</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.2984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.30059999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -3948,5 +6684,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>